--- a/Employee_Reports35/Pasidu Pamodaya Rathnayake Rathnayake Mudiyanselage Q0568.xlsx
+++ b/Employee_Reports35/Pasidu Pamodaya Rathnayake Rathnayake Mudiyanselage Q0568.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,8 +462,8 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="46" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1278,28 +1278,40 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>06-Jul-2025</t>
+          <t>21-Sep-2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>06-Jul-2027</t>
+          <t>21-Sep-2026</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>610</v>
+        <v>321</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1315,7 +1327,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Material request Procedure (Other Trainings)</t>
+          <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -1323,28 +1335,65 @@
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr">
         <is>
+          <t>06-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>06-Jul-2027</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>609</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Material request Procedure (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
           <t>17-Nov-2024</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>17-Nov-2026</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
-        <v>379</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
+      <c r="H20" s="3" t="n">
+        <v>378</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Pasidu Pamodaya Rathnayake Rathnayake Mudiyanselage Q0568.xlsx
+++ b/Employee_Reports35/Pasidu Pamodaya Rathnayake Rathnayake Mudiyanselage Q0568.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
